--- a/data/b_acv.xlsx
+++ b/data/b_acv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.9054495528658235</v>
+        <v>0.9119938560949127</v>
       </c>
       <c r="D2">
-        <v>0.8890395503746877</v>
+        <v>0.009790279344311809</v>
       </c>
       <c r="E2">
-        <v>0.8786516853932586</v>
+        <v>0.8963070843340659</v>
       </c>
       <c r="F2">
-        <v>0.8648863408291666</v>
+        <v>0.006677828304474398</v>
       </c>
       <c r="G2">
-        <v>0.851686704316766</v>
+        <v>0.8822397829840913</v>
+      </c>
+      <c r="H2">
+        <v>0.01181152650232513</v>
+      </c>
+      <c r="I2">
+        <v>0.8724229535429913</v>
+      </c>
+      <c r="J2">
+        <v>0.01944799787441679</v>
+      </c>
+      <c r="K2">
+        <v>0.8582711231761113</v>
+      </c>
+      <c r="L2">
+        <v>0.01339093123067229</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8949978399939986</v>
+        <v>0.9152466830857234</v>
       </c>
       <c r="D3">
-        <v>0.8860392728281987</v>
+        <v>0.008861120151360058</v>
       </c>
       <c r="E3">
-        <v>0.8764044943820226</v>
+        <v>0.9032202292741921</v>
       </c>
       <c r="F3">
-        <v>0.8665677111966282</v>
+        <v>0.008962786365398242</v>
       </c>
       <c r="G3">
-        <v>0.8507499361668831</v>
+        <v>0.8906384333704824</v>
+      </c>
+      <c r="H3">
+        <v>0.01053375772981107</v>
+      </c>
+      <c r="I3">
+        <v>0.8784767571747724</v>
+      </c>
+      <c r="J3">
+        <v>0.02053679984776114</v>
+      </c>
+      <c r="K3">
+        <v>0.8654100214907816</v>
+      </c>
+      <c r="L3">
+        <v>0.01593204911929342</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8946747444855175</v>
+        <v>0.8984920950186701</v>
       </c>
       <c r="D4">
-        <v>0.8903733000277546</v>
+        <v>0.01022036510747025</v>
       </c>
       <c r="E4">
-        <v>0.8907519446845289</v>
+        <v>0.8919248698338074</v>
       </c>
       <c r="F4">
-        <v>0.8848809305653725</v>
+        <v>0.006618083869208864</v>
       </c>
       <c r="G4">
-        <v>0.8727763424859498</v>
+        <v>0.8881835327544609</v>
+      </c>
+      <c r="H4">
+        <v>0.01347278070759444</v>
+      </c>
+      <c r="I4">
+        <v>0.8909760411296327</v>
+      </c>
+      <c r="J4">
+        <v>0.01436241370655155</v>
+      </c>
+      <c r="K4">
+        <v>0.8830013573125213</v>
+      </c>
+      <c r="L4">
+        <v>0.01738646189566103</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.8819739091969693</v>
+        <v>0.8861288101480363</v>
       </c>
       <c r="D5">
-        <v>0.879706355814599</v>
+        <v>0.01370130374417349</v>
       </c>
       <c r="E5">
-        <v>0.8755401901469317</v>
+        <v>0.8848439425167924</v>
       </c>
       <c r="F5">
-        <v>0.8811438344808329</v>
+        <v>0.007922100351338578</v>
       </c>
       <c r="G5">
-        <v>0.8856634937718095</v>
+        <v>0.8769901289603566</v>
+      </c>
+      <c r="H5">
+        <v>0.009519385145594259</v>
+      </c>
+      <c r="I5">
+        <v>0.8820705877298505</v>
+      </c>
+      <c r="J5">
+        <v>0.009479079206697282</v>
+      </c>
+      <c r="K5">
+        <v>0.8863380839271576</v>
+      </c>
+      <c r="L5">
+        <v>0.02013374691934713</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.9009463930486611</v>
+        <v>0.9111763459654141</v>
       </c>
       <c r="D6">
-        <v>0.8917042742159312</v>
+        <v>0.007060438046636296</v>
       </c>
       <c r="E6">
-        <v>0.884874675885912</v>
+        <v>0.8974869549911709</v>
       </c>
       <c r="F6">
-        <v>0.8729225023342669</v>
+        <v>0.007767340313739636</v>
       </c>
       <c r="G6">
-        <v>0.8636362637996216</v>
+        <v>0.8880136063586151</v>
+      </c>
+      <c r="H6">
+        <v>0.007750904569699226</v>
+      </c>
+      <c r="I6">
+        <v>0.8750698144010999</v>
+      </c>
+      <c r="J6">
+        <v>0.01729369143529494</v>
+      </c>
+      <c r="K6">
+        <v>0.8637439203709988</v>
+      </c>
+      <c r="L6">
+        <v>0.01597366520640282</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.9167062883336395</v>
+        <v>0.9147583485606843</v>
       </c>
       <c r="D7">
-        <v>0.9060323341659728</v>
+        <v>0.009489022536760284</v>
       </c>
       <c r="E7">
-        <v>0.8883318928262748</v>
+        <v>0.9070985288523232</v>
       </c>
       <c r="F7">
-        <v>0.8695566201558504</v>
+        <v>0.01200430918468063</v>
       </c>
       <c r="G7">
-        <v>0.8751160664523339</v>
+        <v>0.8993858155854653</v>
+      </c>
+      <c r="H7">
+        <v>0.008849943255277649</v>
+      </c>
+      <c r="I7">
+        <v>0.8936225439651716</v>
+      </c>
+      <c r="J7">
+        <v>0.01392210896118182</v>
+      </c>
+      <c r="K7">
+        <v>0.8939373374052708</v>
+      </c>
+      <c r="L7">
+        <v>0.009508801975274454</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.8684667578956626</v>
+        <v>0.9066248245544344</v>
       </c>
       <c r="D8">
-        <v>0.8575498195947823</v>
+        <v>0.008000900466325579</v>
       </c>
       <c r="E8">
-        <v>0.8477095937770095</v>
+        <v>0.9044015194099512</v>
       </c>
       <c r="F8">
-        <v>0.8398444985470824</v>
+        <v>0.008388464446453515</v>
       </c>
       <c r="G8">
-        <v>0.8242744302379534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.9012679364570211</v>
-      </c>
-      <c r="D9">
-        <v>0.8973681654177075</v>
-      </c>
-      <c r="E9">
-        <v>0.8935177182368192</v>
-      </c>
-      <c r="F9">
-        <v>0.8897407436494846</v>
-      </c>
-      <c r="G9">
-        <v>0.8830846358492275</v>
+        <v>0.8972854640980735</v>
+      </c>
+      <c r="H8">
+        <v>0.01246652190714638</v>
+      </c>
+      <c r="I8">
+        <v>0.8955168413816805</v>
+      </c>
+      <c r="J8">
+        <v>0.01934739598232919</v>
+      </c>
+      <c r="K8">
+        <v>0.8813392150209252</v>
+      </c>
+      <c r="L8">
+        <v>0.01577020791687747</v>
       </c>
     </row>
   </sheetData>
